--- a/TestAPI_HTTPClient/Excel/ApiCaseTest.xlsx
+++ b/TestAPI_HTTPClient/Excel/ApiCaseTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\API_HttpClient\TestAPI_HttpClient\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8148CC6F-CF01-4911-AD20-555D1AE11ABC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971B6B70-56FE-422F-964F-DB4E495F0DBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>编号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -237,17 +237,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Content-Type=application/json;charset=utf-8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content-Type=application/json;charset=UTF-8
-Accept-Language=zh_CN
-token='token'
-sessionId='sessionId'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>resultValue/token
 resultValue/sessionId</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -267,15 +256,15 @@
     <t>{"resultValue":{"dangerNum":1,"passwordIsEmpty":1,"level":80,"loginKey":"AgSWqBKduq7zSnP/kxISa4VYalEAWGHmWpLEqozxbYg1rvk0EOJA9ciY4r41wq5LgIFbiCBToWclFdWhipi/9Q7pFtEvOaAvg/GQvk/AqYthaYekP49ybQjJbIoLJsuULhxPhL9z7uLDIcSZAjR5OkrJ1FNwWYqbWoKYqEoP04w=","userPhone":"13126668274","sysAccount":"21383","sessionId":"1B0CC1CA-CB54-4E8A-8255-D0B2B9D5E774","userBirth":"2020-05-28","source":0,"userName":"球球","userCode":"jeejio_11384","token":"eyJ0eXAiOiJKV1QiLCJhbGciOiJSUzI1NiJ9.eyJzdWIiOiJ7XCJleHBpcmVzRGF0ZVwiOjE2MTAxMDMwNDE1ODksXCJwbGF0Zm9ybVwiOlwiY29udHJvbFwiLFwic2Vzc2lvbklkXCI6XCIxQjBDQzFDQS1DQjU0LTRFOEEtODI1NS1EMEIyQjlENUU3NzRcIixcInRva2VuU2NlbmVcIjpcIlVTRVJfTE9HSU5cIixcInRvb2xcIjpcIjJcIixcInVzZXJJZFwiOjIwMjAwNTI4MTQyMjR9IiwiZXhwIjoxNjEwMTAzMDQxLCJ1c2VyIjoie1wiZXhwaXJlc0RhdGVcIjoxNjEwMTAzMDQxNTg5LFwicGxhdGZvcm1cIjpcImNvbnRyb2xcIixcInNlc3Npb25JZFwiOlwiMUIwQ0MxQ0EtQ0I1NC00RThBLTgyNTUtRDBCMkI5RDVFNzc0XCIsXCJ0b2tlblNjZW5lXCI6XCJVU0VSX0xPR0lOXCIsXCJ0b29sXCI6XCIyXCIsXCJ1c2VySWRcIjoyMDIwMDUyODE0MjI0fSIsImlhdCI6MTYxMDEwMTI0MX0.Ft_UCBCCj6z4DWb3-v3LStL7LBBHrspj0jxu8kMLpoBdSh7Q_43_MYTZMY8gsDjAZFaANuPMcd3p2J_njYUHiQ","tokenExpires":1610103041589,"imgUrl":"https://qauserimgs.jeejio.com/qa/2020052814224/userinfo/2020-11-24/56acf782058e4e36907e295bec89f977.jpg","userPasswd":"1","phone":"f","userEmail":"13126668274@163.com","id":2020052814224,"email":"f","account":"t","status":1},"success":1,"statusCode":200}</t>
   </si>
   <si>
-    <t>resultValue/token
-resultValue/sessionId
-resultValue/id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content-Type=application/json;charset=utf-8
-token='token'
-sessionId='sessionId'</t>
+    <t>Accept-Language=zh_CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql结果验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,12 +683,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -720,11 +709,12 @@
     <col min="14" max="14" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="31.625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="69.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="69.375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,14 +763,17 @@
       <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -799,17 +792,17 @@
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>21</v>
@@ -818,7 +811,7 @@
         <v>29</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N2" s="3">
         <v>200</v>
@@ -829,14 +822,17 @@
       <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -856,13 +852,13 @@
         <v>20</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>21</v>
@@ -874,7 +870,7 @@
         <v>26</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N3" s="3">
         <v>200</v>
@@ -885,14 +881,17 @@
       <c r="P3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -912,13 +911,13 @@
         <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>21</v>
@@ -927,10 +926,10 @@
         <v>21</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N4" s="3">
         <v>200</v>
@@ -941,17 +940,20 @@
       <c r="P4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{581F6EDF-4799-4DCD-9FC9-270FE2F5A6C4}">

--- a/TestAPI_HTTPClient/Excel/ApiCaseTest.xlsx
+++ b/TestAPI_HTTPClient/Excel/ApiCaseTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\API_HttpClient\TestAPI_HttpClient\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971B6B70-56FE-422F-964F-DB4E495F0DBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35416187-E0B2-4B56-A829-30AF31892069}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -685,10 +685,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="Q4" sqref="Q4"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
